--- a/biology/Médecine/Mésencéphale/Mésencéphale.xlsx
+++ b/biology/Médecine/Mésencéphale/Mésencéphale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9senc%C3%A9phale</t>
+          <t>Mésencéphale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mésencéphale, ou cerveau moyen, est, chez les chordés, une région du tronc cérébral reliée au cerveau, située entre le pont de Varole (ou protubérance) en bas et le diencéphale en haut. Il comprend[1], de l’avant vers l'arrière :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mésencéphale, ou cerveau moyen, est, chez les chordés, une région du tronc cérébral reliée au cerveau, située entre le pont de Varole (ou protubérance) en bas et le diencéphale en haut. Il comprend, de l’avant vers l'arrière :
 les pédoncules cérébraux ou pes pedunculi ou crus cerebri (droite et gauche) ;
 le tegmentum mesencephali ;
 le tectum mesencephali ;
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9senc%C3%A9phale</t>
+          <t>Mésencéphale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Embryologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mésencéphale dérive de la vésicule encéphalique intermédiaire, reliant les vésicules antérieure (à l'origine du prosencéphale ou cerveau antérieur) et postérieure (à l'origine du rhombencéphale ou cerveau postérieur).
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9senc%C3%A9phale</t>
+          <t>Mésencéphale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +562,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Crus cerebri
-La crus cerebri (ou pied du mésencéphale) renferme des faisceaux cortico-pontiques, cortico-nucléaires et cortico-spinaux (faisceau pyramidal), et se trouvent séparés en arrière du tegmentum par la substantia nigra. Celle-ci est divisée en pars reticulata ventrale contenant des petits neurones gabaergiques se projetant sur le colliculus supérieur et en pars compacta dorsale, contenant de grands neurones dopaminergiques se projetant sur les ganglions de la base.
-Tegmentum mesencephali
-Le tegmentum contient :
+          <t>Crus cerebri</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La crus cerebri (ou pied du mésencéphale) renferme des faisceaux cortico-pontiques, cortico-nucléaires et cortico-spinaux (faisceau pyramidal), et se trouvent séparés en arrière du tegmentum par la substantia nigra. Celle-ci est divisée en pars reticulata ventrale contenant des petits neurones gabaergiques se projetant sur le colliculus supérieur et en pars compacta dorsale, contenant de grands neurones dopaminergiques se projetant sur les ganglions de la base.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mésencéphale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9senc%C3%A9phale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Tegmentum mesencephali</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le tegmentum contient :
 l'aqueduc de Sylvius (aqueduc du mésencéphale, en terminologie internationale) qui relie les troisième et quatrième ventricules, entouré de ;
 la substance grise périaqueducale (SGPA, en. PAG) qui contient des agrégats de neurones produisant de la sérotonine, de l'enképhaline, de l'endorphine, ou d'autres neuropeptides, jouant un rôle important dans le traitement des informations nociceptives ;
 l'aire tegmentale ventrale de Tsai ;
@@ -561,41 +615,7 @@
 les noyaux oculomoteurs des 3e et 4e paires crâniennes, les noyaux du tractus optiques accessoires ;
 l'aire prétectale, ainsi que ;
 des faisceaux parmi lesquels les faisceaux :
-lemniscal latéral et médian, spino-thalamique, tegmental central et longitudinal supérieur, habénulo-interpédonculaire, et le pédoncule cérébelleux supérieur.
-Tectum mésencéphalique
-Le tectum (toit) est formé des deux colliculi supérieurs et des deux colliculi inférieurs formant la lame quadrijumelle.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M%C3%A9senc%C3%A9phale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/M%C3%A9senc%C3%A9phale</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Vascularisation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mésencéphale est vascularisé par l'artère cérébrale postérieure, l'artère cérébelleuse supérieure et l'artère basilaire.
-</t>
+lemniscal latéral et médian, spino-thalamique, tegmental central et longitudinal supérieur, habénulo-interpédonculaire, et le pédoncule cérébelleux supérieur.</t>
         </is>
       </c>
     </row>
@@ -605,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9senc%C3%A9phale</t>
+          <t>Mésencéphale</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,10 +640,82 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tectum mésencéphalique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tectum (toit) est formé des deux colliculi supérieurs et des deux colliculi inférieurs formant la lame quadrijumelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mésencéphale</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9senc%C3%A9phale</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vascularisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mésencéphale est vascularisé par l'artère cérébrale postérieure, l'artère cérébelleuse supérieure et l'artère basilaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mésencéphale</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9senc%C3%A9phale</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mésencéphale régit des fonctions élémentaires comme l'attention, l'habituation, le sommeil, le réveil, l'élimination et les mouvements de la tête et du cou.
 </t>
